--- a/queryResults_for2.3.1.2_refined.xlsx
+++ b/queryResults_for2.3.1.2_refined.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="13100"/>
+    <workbookView windowWidth="30340" windowHeight="15740"/>
   </bookViews>
   <sheets>
-    <sheet name="queryResults_for2.3.1.2_refined" sheetId="1" r:id="rId1"/>
+    <sheet name="数据透视表" sheetId="3" r:id="rId1"/>
+    <sheet name="queryResults_for2.3.1.2_refined" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queryResults_for2.3.1.2_refined!$A$1:$L$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">queryResults_for2.3.1.2_refined!$A$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +34,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="118">
+  <si>
+    <t>县区关联的乐种名</t>
+  </si>
+  <si>
+    <t>县区名</t>
+  </si>
+  <si>
+    <t>县区坐标（经纬度）</t>
+  </si>
+  <si>
+    <t>离荆门市的距离（km）</t>
+  </si>
+  <si>
+    <t>鄂北打调</t>
+  </si>
+  <si>
+    <t>宜城市</t>
+  </si>
+  <si>
+    <t>"POINT(112.25776 31.71976)"</t>
+  </si>
+  <si>
+    <t>"74.409"</t>
+  </si>
+  <si>
+    <t>鄂北打调-粗乐</t>
+  </si>
+  <si>
+    <t>鄂北打调-细乐</t>
+  </si>
+  <si>
+    <t>鄂北花鼓戏</t>
+  </si>
+  <si>
+    <t>远安县</t>
+  </si>
+  <si>
+    <t>"POINT(111.64132 31.06129)"</t>
+  </si>
+  <si>
+    <t>"53.3627"</t>
+  </si>
+  <si>
+    <t>江汉丝弦</t>
+  </si>
+  <si>
+    <t>当阳市</t>
+  </si>
+  <si>
+    <t>"POINT(111.78833 30.82108)"</t>
+  </si>
+  <si>
+    <t>"47.0211"</t>
+  </si>
+  <si>
+    <t>沮水巫音</t>
+  </si>
+  <si>
+    <t>梁山调</t>
+  </si>
+  <si>
+    <t>钟祥市</t>
+  </si>
+  <si>
+    <t>"POINT(112.58817 31.16797)"</t>
+  </si>
+  <si>
+    <t>"38.9657"</t>
+  </si>
+  <si>
+    <t>宜昌细乐</t>
+  </si>
+  <si>
+    <t>远安花鼓戏</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>东宝区</t>
+  </si>
+  <si>
+    <t>"POINT(112.20173 31.05192)"</t>
+  </si>
+  <si>
+    <t>"0.0"</t>
+  </si>
+  <si>
+    <t>掇刀区</t>
+  </si>
+  <si>
+    <t>"POINT(112.20772 30.97307)"</t>
+  </si>
+  <si>
+    <t>"8.78137"</t>
+  </si>
+  <si>
+    <t>沙洋县</t>
+  </si>
+  <si>
+    <t>"POINT(112.58854 30.70918)"</t>
+  </si>
+  <si>
+    <t>"53.0276"</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
   <si>
     <t>城市</t>
   </si>
@@ -41,15 +153,6 @@
     <t>县区</t>
   </si>
   <si>
-    <t>县区坐标（经纬度）</t>
-  </si>
-  <si>
-    <t>县区名</t>
-  </si>
-  <si>
-    <t>离荆门市的距离（km）</t>
-  </si>
-  <si>
     <t>城市关联的乐种</t>
   </si>
   <si>
@@ -59,9 +162,6 @@
     <t>县区关联的乐种</t>
   </si>
   <si>
-    <t>县区关联的乐种名</t>
-  </si>
-  <si>
     <t>涉及特藏</t>
   </si>
   <si>
@@ -77,15 +177,6 @@
     <t>"https://lib.ccmusic.edu.cn/data/place/420802"</t>
   </si>
   <si>
-    <t>"POINT(112.20173 31.05192)"</t>
-  </si>
-  <si>
-    <t>东宝区</t>
-  </si>
-  <si>
-    <t>"0.0"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/jQdv72gllM47O2p8"</t>
   </si>
   <si>
@@ -113,9 +204,6 @@
     <t>"https://lib.ccmusic.edu.cn/data/musictype/o69FRxkW56t5Qav7"</t>
   </si>
   <si>
-    <t>梁山调</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/1Y2s69I70AS30YTN"</t>
   </si>
   <si>
@@ -131,27 +219,9 @@
     <t>"https://lib.ccmusic.edu.cn/data/place/420804"</t>
   </si>
   <si>
-    <t>"POINT(112.20772 30.97307)"</t>
-  </si>
-  <si>
-    <t>掇刀区</t>
-  </si>
-  <si>
-    <t>"8.78137"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/place/420881"</t>
   </si>
   <si>
-    <t>"POINT(112.58817 31.16797)"</t>
-  </si>
-  <si>
-    <t>钟祥市</t>
-  </si>
-  <si>
-    <t>"38.9657"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/place/420500"</t>
   </si>
   <si>
@@ -161,33 +231,15 @@
     <t>"https://lib.ccmusic.edu.cn/data/place/420582"</t>
   </si>
   <si>
-    <t>"POINT(111.78833 30.82108)"</t>
-  </si>
-  <si>
-    <t>当阳市</t>
-  </si>
-  <si>
-    <t>"47.0211"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/2jcB25UV74N8KFeI"</t>
   </si>
   <si>
-    <t>宜昌细乐</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/3S5WgP5NPbQ25122"</t>
   </si>
   <si>
-    <t>鄂北花鼓戏</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/MS20BCvu7QKGsMc5"</t>
   </si>
   <si>
-    <t>江汉丝弦</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/CQ4CA101Z06u908G"</t>
   </si>
   <si>
@@ -197,15 +249,9 @@
     <t>"https://lib.ccmusic.edu.cn/data/musictype/Ie4l9D4yzi5g799h"</t>
   </si>
   <si>
-    <t>远安花鼓戏</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/K52hXaVgcreKj8Zl"</t>
   </si>
   <si>
-    <t>沮水巫音</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/QE7O3BRP34v0yKJc"</t>
   </si>
   <si>
@@ -269,27 +315,9 @@
     <t>"https://lib.ccmusic.edu.cn/data/place/420822"</t>
   </si>
   <si>
-    <t>"POINT(112.58854 30.70918)"</t>
-  </si>
-  <si>
-    <t>沙洋县</t>
-  </si>
-  <si>
-    <t>"53.0276"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/place/420525"</t>
   </si>
   <si>
-    <t>"POINT(111.64132 31.06129)"</t>
-  </si>
-  <si>
-    <t>远安县</t>
-  </si>
-  <si>
-    <t>"53.3627"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/place/420600"</t>
   </si>
   <si>
@@ -299,15 +327,6 @@
     <t>"https://lib.ccmusic.edu.cn/data/place/420684"</t>
   </si>
   <si>
-    <t>"POINT(112.25776 31.71976)"</t>
-  </si>
-  <si>
-    <t>宜城市</t>
-  </si>
-  <si>
-    <t>"74.409"</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/TUuiYjM8T3129r8H"</t>
   </si>
   <si>
@@ -317,18 +336,12 @@
     <t>"https://lib.ccmusic.edu.cn/data/musictype/G8YBwZ6lY3QK6C3f"</t>
   </si>
   <si>
-    <t>鄂北打调</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/sdresource/629dO9T62jd5vw3Q"</t>
   </si>
   <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/jE5M8DWNaW0GGF37"</t>
   </si>
   <si>
-    <t>鄂北打调-粗乐</t>
-  </si>
-  <si>
     <t>"https://lib.ccmusic.edu.cn/data/sdresource/90QT3psX2JMSX86w"</t>
   </si>
   <si>
@@ -339,9 +352,6 @@
   </si>
   <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/ivojjMUpkzYv43uv"</t>
-  </si>
-  <si>
-    <t>鄂北打调-细乐</t>
   </si>
   <si>
     <t>"https://lib.ccmusic.edu.cn/data/musictype/Lie8zD916Q6955P6"</t>
@@ -1293,6 +1303,2449 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45768.6900810185" refreshedBy="caojunjun" recordCount="150">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L151" sheet="queryResults_for2.3.1.2_refined"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="城市" numFmtId="0">
+      <sharedItems count="3">
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420800&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420500&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420600&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="城市名" numFmtId="0">
+      <sharedItems count="3">
+        <s v="荆门市"/>
+        <s v="宜昌市"/>
+        <s v="襄阳市"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="县区" numFmtId="0">
+      <sharedItems count="7">
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420802&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420804&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420881&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420582&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420822&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420525&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/place/420684&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="县区坐标（经纬度）" numFmtId="0">
+      <sharedItems count="7">
+        <s v="&quot;POINT(112.20173 31.05192)&quot;"/>
+        <s v="&quot;POINT(112.20772 30.97307)&quot;"/>
+        <s v="&quot;POINT(112.58817 31.16797)&quot;"/>
+        <s v="&quot;POINT(111.78833 30.82108)&quot;"/>
+        <s v="&quot;POINT(112.58854 30.70918)&quot;"/>
+        <s v="&quot;POINT(111.64132 31.06129)&quot;"/>
+        <s v="&quot;POINT(112.25776 31.71976)&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="县区名" numFmtId="0">
+      <sharedItems count="7">
+        <s v="东宝区"/>
+        <s v="掇刀区"/>
+        <s v="钟祥市"/>
+        <s v="当阳市"/>
+        <s v="沙洋县"/>
+        <s v="远安县"/>
+        <s v="宜城市"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="离荆门市的距离（km）" numFmtId="0">
+      <sharedItems count="7">
+        <s v="&quot;0.0&quot;"/>
+        <s v="&quot;8.78137&quot;"/>
+        <s v="&quot;38.9657&quot;"/>
+        <s v="&quot;47.0211&quot;"/>
+        <s v="&quot;53.0276&quot;"/>
+        <s v="&quot;53.3627&quot;"/>
+        <s v="&quot;74.409&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="城市关联的乐种" numFmtId="0">
+      <sharedItems count="32">
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/jQdv72gllM47O2p8&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/9O7rprb6Sg3HPuxT&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/Bt7pbK574ApCaGIp&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/G3O4zL9D73p0lUqR&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/o69FRxkW56t5Qav7&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/1Y2s69I70AS30YTN&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/dIEF3fb9kGRe7Tcm&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/2jcB25UV74N8KFeI&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/3S5WgP5NPbQ25122&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/CQ4CA101Z06u908G&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/Ie4l9D4yzi5g799h&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/K52hXaVgcreKj8Zl&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/QE7O3BRP34v0yKJc&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/Up2RoJaEg1g6u1Q6&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/drN25s8Le9w4P26z&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/l9zRMR2WSKI5zDe0&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/uS8wzByTv1JV2lVj&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/xvPYExWWKPWLN6r9&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/a5syRj0OgxlKtL95&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/eB6xa4hE82SK0c92&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/eIyh98iWp77Uy6mW&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/7eL6sv2QBP121zqu&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/MS20BCvu7QKGsMc5&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/TUuiYjM8T3129r8H&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/ArjpszR7xDIcQ6yJ&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/G8YBwZ6lY3QK6C3f&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/Lie8zD916Q6955P6&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/To3Z5FVbUjY4OCps&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/YvU191ce9MoEf9Z7&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/bmj8Ek0BV7t32f6t&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/ivojjMUpkzYv43uv&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/jE5M8DWNaW0GGF37&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="城市关联的乐种名" numFmtId="0">
+      <sharedItems count="32">
+        <s v="府河傢业-大乐"/>
+        <s v="天沔小曲"/>
+        <s v="府河傢业-细乐"/>
+        <s v="襄河吹打"/>
+        <s v="梁山调"/>
+        <s v="府河傢业"/>
+        <s v="府河傢业-打板乐"/>
+        <s v="宜昌细乐"/>
+        <s v="鄂北花鼓戏"/>
+        <s v="湖北小曲"/>
+        <s v="远安花鼓戏"/>
+        <s v="沮水巫音"/>
+        <s v="宜都邦鼓"/>
+        <s v="湖北弦索乐"/>
+        <s v="鄂西堂调"/>
+        <s v="湖北牌子锣"/>
+        <s v="长阳南曲"/>
+        <s v="汉滩小曲"/>
+        <s v="建东花鼓戏"/>
+        <s v="地花鼓"/>
+        <s v="湖北牌子锣-丝竹锣鼓"/>
+        <s v="湖北小曲-南曲"/>
+        <s v="江汉丝弦"/>
+        <s v="襄河道坠子"/>
+        <s v="襄阳小曲"/>
+        <s v="鄂北打调"/>
+        <s v="火炮(鄂北打调)"/>
+        <s v="老河口丝弦"/>
+        <s v="襄阳花鼓戏"/>
+        <s v="鄂北打调-锣鼓架子"/>
+        <s v="鄂北打调-细乐"/>
+        <s v="鄂北打调-粗乐"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="县区关联的乐种" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <m/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/o69FRxkW56t5Qav7&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/2jcB25UV74N8KFeI&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/MS20BCvu7QKGsMc5&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/3S5WgP5NPbQ25122&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/Ie4l9D4yzi5g799h&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/K52hXaVgcreKj8Zl&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/G8YBwZ6lY3QK6C3f&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/jE5M8DWNaW0GGF37&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/musictype/ivojjMUpkzYv43uv&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="县区关联的乐种名" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <m/>
+        <s v="梁山调"/>
+        <s v="宜昌细乐"/>
+        <s v="江汉丝弦"/>
+        <s v="鄂北花鼓戏"/>
+        <s v="远安花鼓戏"/>
+        <s v="沮水巫音"/>
+        <s v="鄂北打调"/>
+        <s v="鄂北打调-粗乐"/>
+        <s v="鄂北打调-细乐"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="涉及特藏" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/sdresource/629dO9T62jd5vw3Q&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/sdresource/90QT3psX2JMSX86w&quot;"/>
+        <s v="&quot;https://lib.ccmusic.edu.cn/data/sdresource/006nnaM3imVngj4i&quot;"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="特藏资源名" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="湖北襄河道坠子系列之三：“襄河道坠子”讲座（李大庆）"/>
+        <s v="湖北襄河道坠子系列之二：“襄河道坠子”作为地域性的流派和形成（姚艺君）"/>
+        <s v="湖北襄河道坠子系列之一：湖北“襄河道坠子”演出"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="1" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="9"/>
+    <field x="4"/>
+    <field x="3"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+      <x v="4"/>
+      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="5"/>
+      <x/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="5"/>
+      <x/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="6"/>
+      <x v="5"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="5"/>
+      <x/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1551,17 +4004,221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="A3:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.3125" customWidth="1"/>
+    <col min="2" max="2" width="8.75"/>
+    <col min="3" max="3" width="27.125"/>
+    <col min="4" max="4" width="22.875"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="37.8828125" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.34375" customWidth="1"/>
+    <col min="4" max="4" width="23.5625" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" customWidth="1"/>
     <col min="7" max="7" width="36.8515625" customWidth="1"/>
     <col min="8" max="8" width="17.0546875" customWidth="1"/>
@@ -1572,66 +4229,66 @@
   <sheetData>
     <row r="1" ht="34" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1640,28 +4297,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1670,28 +4327,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1700,28 +4357,28 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1730,28 +4387,28 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1760,28 +4417,28 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1790,28 +4447,28 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1820,28 +4477,28 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1850,28 +4507,28 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1880,28 +4537,28 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1910,28 +4567,28 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1940,28 +4597,28 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1970,28 +4627,28 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2000,28 +4657,28 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2030,1354 +4687,1354 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3386,28 +6043,28 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3416,28 +6073,28 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3446,28 +6103,28 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3476,28 +6133,28 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3506,28 +6163,28 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3536,28 +6193,28 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3566,3090 +6223,3090 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J102" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I103" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I109" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="L126" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="J130" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="J132" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
